--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,25 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T19:45:00+01:00</t>
+    <t>2023-03-02T21:18:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>Nils Haendly</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -257,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -357,28 +351,20 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -400,50 +386,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:55:41+01:00</t>
+    <t>2023-03-02T22:37:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Nils Haendly</t>
+    <t>HL7 International - [Some] Work Group</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -251,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -351,20 +357,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -386,50 +400,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-missing-values-as-snomed.xlsx
+++ b/output/ValueSet-vs-missing-values-as-snomed.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
